--- a/micro-frontend.xlsx
+++ b/micro-frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/fc62608_alunos_fc_ul_pt/Documents/fcul/semestres/2 semestre/Aplicacoes na web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{0A7B173D-CED2-4B0B-ABC9-47E3A79EC2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{183A53DD-21CA-45F0-BCAB-9C92A2D2D6C5}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="8_{0A7B173D-CED2-4B0B-ABC9-47E3A79EC2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF3CFD9-E1AA-4750-9601-41E4791BE0A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C888EA7-39E9-41E7-9D25-E6AB9C3CFD08}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="12">
+  <futureMetadata name="XLRICHVALUE" count="27">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -125,8 +125,113 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="12">
+  <valueMetadata count="27">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -162,18 +267,60 @@
     </bk>
     <bk>
       <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Micro-Frontend</t>
-  </si>
-  <si>
-    <t>imagem</t>
   </si>
   <si>
     <t>responsabilidade</t>
@@ -255,9 +402,6 @@
     </r>
   </si>
   <si>
-    <t>Single responsibility, Reusability,  Independent deployment , Flexibility, Simplicity</t>
-  </si>
-  <si>
     <t>Single responsibility, Reusability, Flexibility, Simplicity</t>
   </si>
   <si>
@@ -303,37 +447,25 @@
     <t>1 -  componentes: header, login, footer</t>
   </si>
   <si>
-    <t>5 componentes: header, localizacao, destaques, cartao do destaque(reutilizavel), footer</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
     <t>2 -  componentes: header, perfil, footer</t>
   </si>
   <si>
-    <t>2- 5 componentes: header, imagem, , detalhes, ver feedback, footer</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>componentes: header,mapa, categorias, cartao categorias, footer</t>
-  </si>
-  <si>
-    <t>header - titulo estatico</t>
-  </si>
-  <si>
-    <t>localizacao: lista de localizaçoes</t>
-  </si>
-  <si>
-    <t>cartoes dos destaques: Localizacao, nome da carne, peso</t>
-  </si>
-  <si>
-    <t>footer: homepage, favoritos, QRcode, noticias, perfil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> na linha 11</t>
+    <t>Single responsibility, Reusability, Independent deployment , Flexibility, Simplicity</t>
+  </si>
+  <si>
+    <t>1: header - titulo estatico; localizacao: lista de localizaçoes; cartoes dos destaques: Localizacao, nome da carne, peso; footer: homepage, favoritos, QRcode, noticias, perfil</t>
+  </si>
+  <si>
+    <t>1 - header, localizacao, destaques, cartao do destaque(reutilizavel), footer</t>
+  </si>
+  <si>
+    <t>2 - header,mapa, categorias, cartao categorias, footer</t>
+  </si>
+  <si>
+    <t>3 - header, imagem, detalhes, ver feedback, footer</t>
   </si>
 </sst>
 </file>
@@ -423,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -431,11 +563,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,45 +748,157 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,6 +977,1126 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1098177</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6777B45-45FC-8A56-3B03-FF23D00C010C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8710706" y="2159000"/>
+          <a:ext cx="298823" cy="276412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1123576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1422399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>92635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E589B5EB-CC27-469F-A628-A8FADD4D49C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10200341" y="2191870"/>
+          <a:ext cx="298823" cy="276412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1128058</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1426881</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4775E3EC-B7C2-422B-A196-E66DB222E90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11669058" y="2241177"/>
+          <a:ext cx="298823" cy="276412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1123577</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15201CD-209C-4019-ABE1-9B07BD467735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8736106" y="615576"/>
+          <a:ext cx="298823" cy="276412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1148976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1447799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CaixaDeTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41250B49-D0E2-4138-BF90-D95BC7E5F9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10225741" y="663387"/>
+          <a:ext cx="298823" cy="276412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1101591</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1400414</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF1299D-4214-45A7-944C-160735B555D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8721591" y="6437086"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1121228</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1420051</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A020C6C1-FAD3-4C3A-8D8C-B55748D94634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8741228" y="7424056"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1110769</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1409592</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CaixaDeTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAE4EFE-F743-4A40-8921-40887A375764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10189455" y="6382870"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1121228</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1420051</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CaixaDeTexto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC267E8F-E9CA-4F6E-9F6B-B072BD6200EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10199914" y="7424057"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1090706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1389529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CaixaDeTexto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7D8804-B874-4C2F-BF0D-282E0D609A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8710706" y="3857171"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1116105</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1414928</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CaixaDeTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B124498-D128-423C-A382-CCC9160FFD7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10194791" y="3890041"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1090706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1389529</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CaixaDeTexto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF519A8-6811-4C96-BE8D-AEBBECFF94D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8710706" y="5239657"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1116105</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1414928</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CaixaDeTexto 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F80D301-91FD-43C6-A93D-A4AE50A7F3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10194791" y="5272527"/>
+          <a:ext cx="298823" cy="287938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1120587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1419410</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CaixaDeTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D76577-281A-4803-8EAC-151A62ADA569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657958" y="5327597"/>
+          <a:ext cx="298823" cy="282175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1087930</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1386753</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CaixaDeTexto 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12612B5F-201D-42F5-B5B4-B7D7413CCFF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11625301" y="6884254"/>
+          <a:ext cx="298823" cy="282175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1087930</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1386753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CaixaDeTexto 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE46664-4B8B-435C-9205-83748176FE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11625301" y="8005483"/>
+          <a:ext cx="298823" cy="282175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -608,7 +2141,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="27">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -657,6 +2190,66 @@
     <v>11</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>25</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>26</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -683,6 +2276,21 @@
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
+  <rel r:id="rId25"/>
+  <rel r:id="rId26"/>
+  <rel r:id="rId27"/>
 </richValueRels>
 </file>
 
@@ -1003,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A6C641-5179-4B8C-8459-1D4FB1A76A26}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,500 +2624,697 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="7" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="32" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="29" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="44" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="44" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="15" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="48" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="48" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="49" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="e" vm="1">
+      <c r="B14" s="18"/>
+      <c r="C14" s="22" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="10" t="e" vm="2">
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="7"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="21"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="48" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="48" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="13"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="13"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="13"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="13"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="13"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="21"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="13"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="14" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="15" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H10" s="9"/>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="e" vm="3">
+      <c r="E26" s="39"/>
+      <c r="F26" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="48" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="8" t="e" vm="4">
+      <c r="H26" s="48" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="9"/>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="9"/>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="e" vm="5">
+      <c r="I26" s="49" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="18"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="18"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="18"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="7"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="I19" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="8" t="e" vm="6">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="21"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="14" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10" t="e" vm="7">
+      <c r="G35" s="48" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H24" s="10"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="8" t="e" vm="8">
+      <c r="H35" s="48" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="8" t="e" vm="9">
+      <c r="I35" s="49" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="21"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="14" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" s="15" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="8" t="e" vm="10">
+      <c r="G41" s="38" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="14"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="14"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="14"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="8" t="e" vm="11">
+      <c r="H41" s="38" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="C40" s="8" t="e" vm="12">
+      <c r="I41" s="39" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="14"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="14"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="14"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="14"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1539,30 +3344,58 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="H5:H10"/>
-    <mergeCell ref="I11:I16"/>
+  <mergeCells count="61">
+    <mergeCell ref="I41:I45"/>
     <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="G26:G33"/>
+    <mergeCell ref="H26:H33"/>
+    <mergeCell ref="I26:I33"/>
+    <mergeCell ref="J11:J18"/>
+    <mergeCell ref="K11:K18"/>
+    <mergeCell ref="L11:L18"/>
+    <mergeCell ref="M11:M18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J2:J9"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="I11:I18"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="D35:E39"/>
+    <mergeCell ref="D41:E45"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="G41:G45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="D26:E33"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="B20:C24"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:C39"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="A11:A13"/>
@@ -1570,19 +3403,15 @@
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="B11:B18"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="E2:E9"/>
     <mergeCell ref="D2:D9"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/micro-frontend.xlsx
+++ b/micro-frontend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/fc62608_alunos_fc_ul_pt/Documents/fcul/semestres/2 semestre/Aplicacoes na web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{0A7B173D-CED2-4B0B-ABC9-47E3A79EC2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF3CFD9-E1AA-4750-9601-41E4791BE0A9}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="8_{0A7B173D-CED2-4B0B-ABC9-47E3A79EC2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706353A2-D96E-4072-9494-5BCE8E41D129}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C888EA7-39E9-41E7-9D25-E6AB9C3CFD08}"/>
   </bookViews>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Micro-Frontend</t>
   </si>
@@ -444,28 +444,108 @@
     <t>ViewModels</t>
   </si>
   <si>
-    <t>1 -  componentes: header, login, footer</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
-    <t>2 -  componentes: header, perfil, footer</t>
-  </si>
-  <si>
     <t>Single responsibility, Reusability, Independent deployment , Flexibility, Simplicity</t>
   </si>
   <si>
     <t>1: header - titulo estatico; localizacao: lista de localizaçoes; cartoes dos destaques: Localizacao, nome da carne, peso; footer: homepage, favoritos, QRcode, noticias, perfil</t>
   </si>
   <si>
-    <t>1 - header, localizacao, destaques, cartao do destaque(reutilizavel), footer</t>
-  </si>
-  <si>
-    <t>2 - header,mapa, categorias, cartao categorias, footer</t>
-  </si>
-  <si>
-    <t>3 - header, imagem, detalhes, ver feedback, footer</t>
+    <t>3 - header, foto com mais detalhes da carne</t>
+  </si>
+  <si>
+    <t>1 - header, imagem da notícia, lista de noticias, footer</t>
+  </si>
+  <si>
+    <t>3 - header, cartão da carne, footer</t>
+  </si>
+  <si>
+    <t>3 - Header, imagem Qrcode, cartão ver detalhe da carne, footer</t>
+  </si>
+  <si>
+    <t>1 -  header, login, footer</t>
+  </si>
+  <si>
+    <t>2 -  header, perfil, footer</t>
+  </si>
+  <si>
+    <t>1 - header, localização, destaques, cartão do destaque(reutilizável), footer</t>
+  </si>
+  <si>
+    <t>2 - header,mapa, categorias, cartão categorias, footer</t>
+  </si>
+  <si>
+    <t>1 - header, localizacão,tipo de carne,destaque, lista de carnes, footer</t>
+  </si>
+  <si>
+    <t>2 - header,  imagem, detalhes da notícia,footer</t>
+  </si>
+  <si>
+    <t>2 - header,  dados estatísticos pos. em cartões (reutilizável), footer</t>
+  </si>
+  <si>
+    <t>1 - header,  dados estatísticos neg. em cartões (reutilizável), footer</t>
+  </si>
+  <si>
+    <t>1 - header, imagem da carne, classificação da carne, botões (salvar ou feedback), footer</t>
+  </si>
+  <si>
+    <t>2 - header, detalhes da carne, botão ver foto</t>
+  </si>
+  <si>
+    <t>2 - header, imagem da carne, localização, detalhes da carne, botão expandir, botão feedback, footer</t>
+  </si>
+  <si>
+    <t>3 - header, imagem, detalhes, botão expandir,botão  feedback, footer</t>
+  </si>
+  <si>
+    <t>2: header - titulo estatico; figura: imagem do mapa; localizacao: nome do local; cartões da categoria: nome da carne, imagem; footer: homepage, favoritos, QRcode, noticias, perfil</t>
+  </si>
+  <si>
+    <t>3: Header - titulo estático; Figura: imagem da carne,  nome da carne, preço, localização; Detalhes: nome do produtor, origem, sexo, idade, raça; Botões: ver feedback, expandir;  footer: homepage, favoritos, QRcode, noticias, perfil</t>
+  </si>
+  <si>
+    <t>2: Header - titulo estático; Figura: imagem da carne,  nome da carne, preço, localização; Detalhes: nome do produtor, origem, alimentação, idade, raça; Botões: ver feedback, expandir;  footer: homepage, favoritos, QRcode, noticias, perfil</t>
+  </si>
+  <si>
+    <t>1: header - titulo estatico; localizacao: nome do local; Icone: tipo de produto; Destaque: titulo, imagem, nome do bife, nome do produtor, botão ver detalhes; Lista de carnes: imagem, nome da carne, preço; footer: homepage, favoritos, QRcode, noticias, perfil</t>
+  </si>
+  <si>
+    <t>1: header - imagem estática,Titulo estático, campo de email, campo de password,botão de login,botão de registar</t>
+  </si>
+  <si>
+    <t>2: header - imagem estática, imagem de utilizador,nome do utilizador,email do utilizador,botão de detalhes da conta,botão de definições da conta,botão de contactar suporte
+,botão de terminar sessão</t>
+  </si>
+  <si>
+    <t>2: Nome do produtor,Origem do produto
+,Sexo do animal,Raça do animal,Ração do animal,Estabelecimento do animal,Transporte do animal,Saúde do animal,Tratamento do animal,Estado do animal,Vida do animal,Morte do animal</t>
+  </si>
+  <si>
+    <t>3: Header estático da tabela,Peso ao desarme,Peso ao abate,Rendimento de carcaça,Peso da carcaça,Ganho médio diário,Valor de venda,Custo total,Margem bruta</t>
+  </si>
+  <si>
+    <t>1: header - titulo estatico; Figura:Imagem da carne, nome da carne, preço; Botões: botão ver feedback, botão salvar; Lista de classificações:nome, classificação; footer: homepage, favoritos, QRcode, noticias, perfil</t>
+  </si>
+  <si>
+    <t>3: Camera com leitor de código QRCartão com detalhes da carne,footer (Bottom navigation)</t>
+  </si>
+  <si>
+    <t>1: Header: Titulo estatico; Estatisticas: excremento na água, químicos na água, uso de rações industriais, gado ao ar livre; footer (Bottom navigation)</t>
+  </si>
+  <si>
+    <t>1: Header: Titulo estatico; Estatisticas: area associada ao desmatamento, produção animal, consumo médio de carne, emissão de CO2 e CH4; footer (Bottom navigation)</t>
+  </si>
+  <si>
+    <t>1: Header: imagem da noticia, Titulo da noticia, Corpo da noticia, footer (bottom navigation)</t>
+  </si>
+  <si>
+    <t>2: header: imagem da manchete, resumo da manchete; botão para abrir a manchete; lista de noticias: Cartão de noticias, imagem da noticia, nome do jornal, titulo da noticia</t>
+  </si>
+  <si>
+    <t>3: Header: titulo estatico; grelha de carnes favoritas: cartão com detalhes da carne, Localização da carne, imagem da carne, nome da carne, preço da carne, icon da carne; Texto estatico; footer (bottom navigation)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,168 +822,251 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2098,6 +2267,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2613,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A6C641-5179-4B8C-8459-1D4FB1A76A26}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2625,752 +2798,1037 @@
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" customWidth="1"/>
     <col min="12" max="12" width="20.44140625" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" customWidth="1"/>
+    <col min="14" max="14" width="48.21875" customWidth="1"/>
+    <col min="15" max="15" width="48.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="40" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="43" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="21" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="21" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" s="82"/>
+      <c r="J2" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="65"/>
+      <c r="M2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="56"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="56"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="56"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="56"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="56"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="70"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="11" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="24" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="24" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="38" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="63"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="63"/>
+    </row>
+    <row r="14" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="63"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="63"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="63"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="63"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="78"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="32" t="e" vm="1">
+      <c r="E20" s="29"/>
+      <c r="F20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="24" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="29" t="e" vm="2">
+      <c r="H20" s="24" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="44" t="e" vm="3">
+      <c r="I20" s="85"/>
+      <c r="J20" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="65"/>
+    </row>
+    <row r="21" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="56"/>
+    </row>
+    <row r="22" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="56"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="70"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="10" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="H2" s="44" t="e" vm="4">
+      <c r="C26" s="11" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="21"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="14" t="e" vm="5">
+      <c r="D26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="24" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="15" t="e" vm="6">
+      <c r="H26" s="24" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="48" t="e" vm="7">
+      <c r="I26" s="38" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="48" t="e" vm="8">
+      <c r="J26" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="39"/>
+    </row>
+    <row r="34" spans="1:15" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="9"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="10" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="49" t="e" vm="9">
+      <c r="C35" s="11"/>
+      <c r="D35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="24" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="H35" s="24" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" s="38" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M35" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="39"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="F40" s="9"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="10" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" s="11" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="24" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" s="24" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" s="38" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J41" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="22" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="7"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="21"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="14" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="48" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" s="48" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="13"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="13"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="13"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="13"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="13"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="13"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="14" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" s="15" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="48" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="48" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="49" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="21"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="14" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="48" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="48" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" s="49" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="43"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="21"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="14" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" s="15" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="38" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" s="38" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" s="39" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="43"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="M41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="27"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="27"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="39"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I35:I39"/>
+  <mergeCells count="88">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="M26:M33"/>
+    <mergeCell ref="L41:L45"/>
+    <mergeCell ref="N11:N18"/>
+    <mergeCell ref="O11:O18"/>
+    <mergeCell ref="N20:N24"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="O41:O45"/>
+    <mergeCell ref="M41:M45"/>
+    <mergeCell ref="N41:N45"/>
+    <mergeCell ref="M35:M39"/>
+    <mergeCell ref="N35:N39"/>
+    <mergeCell ref="O35:O39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F41:F45"/>
     <mergeCell ref="F26:F33"/>
     <mergeCell ref="G26:G33"/>
     <mergeCell ref="H26:H33"/>
     <mergeCell ref="I26:I33"/>
-    <mergeCell ref="J11:J18"/>
-    <mergeCell ref="K11:K18"/>
+    <mergeCell ref="G20:G24"/>
     <mergeCell ref="L11:L18"/>
     <mergeCell ref="M11:M18"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="J26:J33"/>
+    <mergeCell ref="K26:K33"/>
+    <mergeCell ref="L26:L33"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="K41:K45"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="J2:J9"/>
     <mergeCell ref="K2:K9"/>
     <mergeCell ref="I11:I18"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="J11:J18"/>
+    <mergeCell ref="K11:K18"/>
     <mergeCell ref="D35:E39"/>
     <mergeCell ref="D41:E45"/>
     <mergeCell ref="D1:E1"/>
@@ -3384,6 +3842,9 @@
     <mergeCell ref="D11:E13"/>
     <mergeCell ref="D14:E18"/>
     <mergeCell ref="D20:E24"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="B20:C24"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A2:A5"/>
@@ -3400,21 +3861,9 @@
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="D2:D9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>